--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.856696666666667</v>
+      </c>
+      <c r="H2">
+        <v>8.57009</v>
+      </c>
+      <c r="I2">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="J2">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H2">
-        <v>6.90497</v>
-      </c>
-      <c r="I2">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J2">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q2">
-        <v>0.2274228591388889</v>
+        <v>0.1534826940422222</v>
       </c>
       <c r="R2">
-        <v>2.04680573225</v>
+        <v>1.38134424638</v>
       </c>
       <c r="S2">
-        <v>0.00598009190466908</v>
+        <v>0.006163837634076366</v>
       </c>
       <c r="T2">
-        <v>0.005980091904669079</v>
+        <v>0.006163837634076367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N3">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O3">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P3">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q3">
-        <v>0.1236618749488889</v>
+        <v>1.277764234175556</v>
       </c>
       <c r="R3">
-        <v>1.11295687454</v>
+        <v>11.49987810758</v>
       </c>
       <c r="S3">
-        <v>0.003251693255893975</v>
+        <v>0.05131478387994306</v>
       </c>
       <c r="T3">
-        <v>0.003251693255893975</v>
+        <v>0.05131478387994305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>38.31104533333333</v>
+      </c>
+      <c r="H4">
+        <v>114.933136</v>
+      </c>
+      <c r="I4">
+        <v>0.7708435061432634</v>
+      </c>
+      <c r="J4">
+        <v>0.7708435061432632</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H4">
-        <v>6.90497</v>
-      </c>
-      <c r="I4">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J4">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N4">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q4">
-        <v>1.387144026613333</v>
+        <v>2.058350302972444</v>
       </c>
       <c r="R4">
-        <v>12.48429623952</v>
+        <v>18.525152726752</v>
       </c>
       <c r="S4">
-        <v>0.03647499989917237</v>
+        <v>0.08266298126148235</v>
       </c>
       <c r="T4">
-        <v>0.03647499989917236</v>
+        <v>0.08266298126148235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>114.933136</v>
       </c>
       <c r="I5">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J5">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N5">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q5">
-        <v>3.785450537644445</v>
+        <v>17.13604530435911</v>
       </c>
       <c r="R5">
-        <v>34.0690548388</v>
+        <v>154.224407739232</v>
       </c>
       <c r="S5">
-        <v>0.09953855211128076</v>
+        <v>0.6881805248817811</v>
       </c>
       <c r="T5">
-        <v>0.09953855211128075</v>
+        <v>0.6881805248817809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>38.31104533333333</v>
+        <v>2.081608</v>
       </c>
       <c r="H6">
-        <v>114.933136</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I6">
-        <v>0.7607888438897402</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J6">
-        <v>0.7607888438897401</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,27 +812,27 @@
         <v>0.161182</v>
       </c>
       <c r="O6">
-        <v>0.07114246280162233</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P6">
-        <v>0.07114246280162234</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q6">
-        <v>2.058350302972444</v>
+        <v>0.1118392468853333</v>
       </c>
       <c r="R6">
-        <v>18.525152726752</v>
+        <v>1.006553221968</v>
       </c>
       <c r="S6">
-        <v>0.0541243920263151</v>
+        <v>0.004491444219300299</v>
       </c>
       <c r="T6">
-        <v>0.0541243920263151</v>
+        <v>0.0044914442193003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,22 +844,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>38.31104533333333</v>
+        <v>2.081608</v>
       </c>
       <c r="H7">
-        <v>114.933136</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602672</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N7">
-        <v>1.808016</v>
+        <v>1.341862</v>
       </c>
       <c r="O7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q7">
-        <v>23.08899431313067</v>
+        <v>0.9310768913653331</v>
       </c>
       <c r="R7">
-        <v>207.800948818176</v>
+        <v>8.379692022287999</v>
       </c>
       <c r="S7">
-        <v>0.6071258997521444</v>
+        <v>0.03739188199053702</v>
       </c>
       <c r="T7">
-        <v>0.6071258997521443</v>
+        <v>0.03739188199053702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.949784666666666</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H8">
-        <v>11.849354</v>
+        <v>13.719662</v>
       </c>
       <c r="I8">
-        <v>0.07843565958645962</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J8">
-        <v>0.07843565958645961</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N8">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q8">
-        <v>0.3902716399388888</v>
+        <v>0.2457069511648889</v>
       </c>
       <c r="R8">
-        <v>3.512444759449999</v>
+        <v>2.211362560484</v>
       </c>
       <c r="S8">
-        <v>0.01026220619799335</v>
+        <v>0.009867547360927065</v>
       </c>
       <c r="T8">
-        <v>0.01026220619799335</v>
+        <v>0.009867547360927065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.949784666666666</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H9">
-        <v>11.849354</v>
+        <v>13.719662</v>
       </c>
       <c r="I9">
-        <v>0.07843565958645962</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J9">
-        <v>0.07843565958645961</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N9">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O9">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P9">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q9">
-        <v>0.2122113973808888</v>
+        <v>2.045543676738222</v>
       </c>
       <c r="R9">
-        <v>1.909902576428</v>
+        <v>18.409893090644</v>
       </c>
       <c r="S9">
-        <v>0.005580105994450415</v>
+        <v>0.08214866943472791</v>
       </c>
       <c r="T9">
-        <v>0.005580105994450415</v>
+        <v>0.08214866943472789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.949784666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H10">
-        <v>11.849354</v>
+        <v>5.632767</v>
       </c>
       <c r="I10">
-        <v>0.07843565958645962</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J10">
-        <v>0.07843565958645961</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N10">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q10">
-        <v>2.380424624629333</v>
+        <v>0.100877850066</v>
       </c>
       <c r="R10">
-        <v>21.42382162166399</v>
+        <v>0.907900650594</v>
       </c>
       <c r="S10">
-        <v>0.06259334739401586</v>
+        <v>0.004051236476931215</v>
       </c>
       <c r="T10">
-        <v>0.06259334739401584</v>
+        <v>0.004051236476931215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,356 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.052037666666667</v>
+        <v>1.877589</v>
       </c>
       <c r="H11">
-        <v>9.156113</v>
+        <v>5.632767</v>
       </c>
       <c r="I11">
-        <v>0.0606080097196149</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J11">
-        <v>0.06060800971961489</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N11">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q11">
-        <v>0.3015667551138889</v>
+        <v>0.839821776906</v>
       </c>
       <c r="R11">
-        <v>2.714100796025</v>
+        <v>7.558395992154</v>
       </c>
       <c r="S11">
-        <v>0.007929708199968331</v>
+        <v>0.03372709286029379</v>
       </c>
       <c r="T11">
-        <v>0.007929708199968329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.052037666666667</v>
-      </c>
-      <c r="H12">
-        <v>9.156113</v>
-      </c>
-      <c r="I12">
-        <v>0.0606080097196149</v>
-      </c>
-      <c r="J12">
-        <v>0.06060800971961489</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.161182</v>
-      </c>
-      <c r="O12">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P12">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q12">
-        <v>0.1639778450628889</v>
-      </c>
-      <c r="R12">
-        <v>1.475800605566</v>
-      </c>
-      <c r="S12">
-        <v>0.004311803076958068</v>
-      </c>
-      <c r="T12">
-        <v>0.004311803076958067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.052037666666667</v>
-      </c>
-      <c r="H13">
-        <v>9.156113</v>
-      </c>
-      <c r="I13">
-        <v>0.0606080097196149</v>
-      </c>
-      <c r="J13">
-        <v>0.06060800971961489</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.602672</v>
-      </c>
-      <c r="N13">
-        <v>1.808016</v>
-      </c>
-      <c r="O13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q13">
-        <v>1.839377644645333</v>
-      </c>
-      <c r="R13">
-        <v>16.554398801808</v>
-      </c>
-      <c r="S13">
-        <v>0.0483664984426885</v>
-      </c>
-      <c r="T13">
-        <v>0.04836649844268849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.742477666666666</v>
-      </c>
-      <c r="H14">
-        <v>8.227433</v>
-      </c>
-      <c r="I14">
-        <v>0.05446070174444989</v>
-      </c>
-      <c r="J14">
-        <v>0.05446070174444988</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.09880833333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.296425</v>
-      </c>
-      <c r="O14">
-        <v>0.1308359775655526</v>
-      </c>
-      <c r="P14">
-        <v>0.1308359775655526</v>
-      </c>
-      <c r="Q14">
-        <v>0.2709796474472222</v>
-      </c>
-      <c r="R14">
-        <v>2.438816827025</v>
-      </c>
-      <c r="S14">
-        <v>0.007125419151641099</v>
-      </c>
-      <c r="T14">
-        <v>0.007125419151641098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.742477666666666</v>
-      </c>
-      <c r="H15">
-        <v>8.227433</v>
-      </c>
-      <c r="I15">
-        <v>0.05446070174444989</v>
-      </c>
-      <c r="J15">
-        <v>0.05446070174444988</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.161182</v>
-      </c>
-      <c r="O15">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P15">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q15">
-        <v>0.1473460117562222</v>
-      </c>
-      <c r="R15">
-        <v>1.326114105806</v>
-      </c>
-      <c r="S15">
-        <v>0.003874468448004775</v>
-      </c>
-      <c r="T15">
-        <v>0.003874468448004775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.742477666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.227433</v>
-      </c>
-      <c r="I16">
-        <v>0.05446070174444989</v>
-      </c>
-      <c r="J16">
-        <v>0.05446070174444988</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.602672</v>
-      </c>
-      <c r="N16">
-        <v>1.808016</v>
-      </c>
-      <c r="O16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q16">
-        <v>1.652814500325333</v>
-      </c>
-      <c r="R16">
-        <v>14.875330502928</v>
-      </c>
-      <c r="S16">
-        <v>0.04346081414480402</v>
-      </c>
-      <c r="T16">
-        <v>0.04346081414480401</v>
+        <v>0.03372709286029378</v>
       </c>
     </row>
   </sheetData>
